--- a/Quality Control/ED-PH-OP1092-DM-SDTM-Specification.xlsx
+++ b/Quality Control/ED-PH-OP1092-DM-SDTM-Specification.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects New\OP1092\Quality Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B0E88F-7F0C-47E3-8E08-3256B4786F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E34219-C0B2-4192-B200-E2884F8C5815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DM" sheetId="1" r:id="rId1"/>
+    <sheet name="SUPPDM" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="148">
   <si>
     <t>Dataset</t>
   </si>
@@ -386,13 +396,96 @@
   </si>
   <si>
     <t>Rep_sv.SVDTC, Rep_ds.DSDTC</t>
+  </si>
+  <si>
+    <t>SUPPDM</t>
+  </si>
+  <si>
+    <t>Assigned from raw data</t>
+  </si>
+  <si>
+    <t>RDOMAIN</t>
+  </si>
+  <si>
+    <t>Related Domain Abbreviation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Concatenate STUDYID,SITENAME with SUBJID to create USUBJID in the format XXXXXX-XXXX-XXXX</t>
+  </si>
+  <si>
+    <t>DM.STUDYID
+DM.SITENAME
+DM.SUBJID</t>
+  </si>
+  <si>
+    <t>IDVAR</t>
+  </si>
+  <si>
+    <t>Identifying Variable</t>
+  </si>
+  <si>
+    <t>IDVARVAL</t>
+  </si>
+  <si>
+    <t>Identifying Variable Value</t>
+  </si>
+  <si>
+    <t>QNAM</t>
+  </si>
+  <si>
+    <t>Qualifier Variable Name</t>
+  </si>
+  <si>
+    <t>QLABEL</t>
+  </si>
+  <si>
+    <t>Qualifier Variable Label</t>
+  </si>
+  <si>
+    <t>QVAL</t>
+  </si>
+  <si>
+    <t>Data Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRF </t>
+  </si>
+  <si>
+    <t>Result Qualifier</t>
+  </si>
+  <si>
+    <t>QORIG</t>
+  </si>
+  <si>
+    <t>VALUE: CRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assigned to 'CRF' </t>
+  </si>
+  <si>
+    <t>QEVAL</t>
+  </si>
+  <si>
+    <t>Evaluator</t>
+  </si>
+  <si>
+    <t>VALUE: Written Exploratory Genomic IC Obtained?, Exploratory Genomic IC Signed Date</t>
+  </si>
+  <si>
+    <t>VALUE: EGICYN, EGICDT</t>
+  </si>
+  <si>
+    <t>Rep_icfeg.ICFSTAT, Rep_icfeg.ICFDTC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,8 +541,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,6 +564,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,7 +598,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -510,8 +615,11 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -561,20 +669,85 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="13">
     <cellStyle name="Hyperlink 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Hyperlink_S23620003_SDTM_Specification_V1.4" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal_KR-PH-R668AD1026-DM-Specification-VNP 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal_KR-PH-R668AD1026-DM-Specification-VNP 2 2" xfId="11" xr:uid="{7035B221-64F5-4373-83D0-6CD5FC79EC08}"/>
     <cellStyle name="Normal_KR-PH-R668AD1026-DM-Specification-wave2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal_KR-PH-R668AD1026-DM-Specification-wave2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normal_KR-PH-R668AD1026-DM-Specification-wave2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal_KR-PH-R668AD1026-DM-Specification-wave3" xfId="10" xr:uid="{2592E4EA-B8EE-4E1D-92A6-6E43FF0540DD}"/>
     <cellStyle name="Normal_KR-PH-R668AD1026-DM-Specification-wave3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal_Trial Design_Spec" xfId="12" xr:uid="{7BD246EC-2647-48CD-9F11-96F419C86AEC}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -947,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,21 +2058,401 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FA55A5-AF13-4704-B826-C067308037F8}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" customWidth="1"/>
+    <col min="11" max="11" width="33.7109375" customWidth="1"/>
+    <col min="12" max="12" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="22"/>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" ht="39" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="21"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="31"/>
+      <c r="K11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="31"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
